--- a/biology/Zoologie/Dendrophidion_percarinatum/Dendrophidion_percarinatum.xlsx
+++ b/biology/Zoologie/Dendrophidion_percarinatum/Dendrophidion_percarinatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophidion percarinatum[1] est une espèce de serpents de la famille des Colubridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophidion percarinatum est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] en Colombie, au Costa Rica, en Équateur, au Honduras, au Nicaragua, au Panama et au Venezuela.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Costa Rica, en Équateur, au Honduras, au Nicaragua, au Panama et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[3] Cope indique que le spécimen en sa possession mesure 82 cm dont 35 cm pour la queue. Ses yeux sont grands. Son dos est brun avec de petites taches rousses sur les flancs. Sa face ventrale est crème.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Cope indique que le spécimen en sa possession mesure 82 cm dont 35 cm pour la queue. Ses yeux sont grands. Son dos est brun avec de petites taches rousses sur les flancs. Sa face ventrale est crème.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1893 : Second addition to the knowledge of the Batrachia and Reptilia of Costa Rica. Proceedings of the American Philosophical Society, vol. 31, p. 333-345 (texte intégral).</t>
         </is>
